--- a/Database/schema.xlsx
+++ b/Database/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tatvasoft\folder\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99512E1E-D60F-445C-B77B-B46F365E9A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65756F-0E5E-407C-BA6F-46480911D58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{755DCF77-CC7E-4E09-92FB-8F791DCC0472}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>Foreign Key(refrence from SP Details)</t>
-  </si>
-  <si>
     <t>10. Service Provider Rating</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>SPB_Cust_ID</t>
   </si>
   <si>
-    <t>refrence S_Schedual</t>
-  </si>
-  <si>
     <t>Blocked_Cust_ID</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>refrence will take from details of user</t>
+  </si>
+  <si>
+    <t>refrence Details of user</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,6 +439,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EE4770-7639-4270-ABD6-419DDB614E63}">
   <dimension ref="A2:F350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,29 +780,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -858,57 +861,57 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1059,57 +1062,57 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
@@ -1167,57 +1170,57 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>13</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>7</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>21</v>
@@ -1332,57 +1335,57 @@
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -1437,57 +1440,57 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
@@ -1546,57 +1549,57 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
@@ -1624,7 +1627,7 @@
     </row>
     <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>10</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>10</v>
@@ -1730,57 +1733,57 @@
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="A94" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="A96" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
@@ -1818,12 +1821,12 @@
         <v>8</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>10</v>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>10</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3" t="s">
@@ -1865,57 +1868,57 @@
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>7</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>7</v>
@@ -1973,10 +1976,10 @@
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
@@ -1986,22 +1989,22 @@
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>7</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>10</v>
@@ -2029,10 +2032,10 @@
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
@@ -2042,7 +2045,7 @@
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>7</v>
@@ -2057,13 +2060,13 @@
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>8</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>10</v>
@@ -2086,57 +2089,57 @@
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="A128" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
@@ -2173,8 +2176,8 @@
       <c r="D131" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>51</v>
+      <c r="E131" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -2193,57 +2196,57 @@
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-    </row>
-    <row r="139" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>7</v>
@@ -2281,12 +2284,12 @@
         <v>8</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>7</v>
@@ -2298,57 +2301,57 @@
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="A148" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="A150" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
@@ -2376,7 +2379,7 @@
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>7</v>
@@ -2391,7 +2394,7 @@
     </row>
     <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>10</v>
@@ -2405,57 +2408,57 @@
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+    </row>
+    <row r="160" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="1:5" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>7</v>
@@ -2508,12 +2511,12 @@
         <v>8</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>7</v>
@@ -2523,12 +2526,12 @@
         <v>8</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>7</v>
@@ -2538,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>7</v>
@@ -2553,12 +2556,12 @@
         <v>8</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>10</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>50</v>
@@ -2587,32 +2590,32 @@
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
@@ -3848,27 +3851,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A171:E174"/>
-    <mergeCell ref="A74:E77"/>
-    <mergeCell ref="A9:E12"/>
-    <mergeCell ref="A26:E29"/>
-    <mergeCell ref="A37:E40"/>
-    <mergeCell ref="A52:E55"/>
-    <mergeCell ref="A63:E66"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A56:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A107:E108"/>
-    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A148:E149"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A159:E160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A137:E138"/>
+    <mergeCell ref="A144:E147"/>
+    <mergeCell ref="A155:E158"/>
     <mergeCell ref="A139:E139"/>
     <mergeCell ref="A78:E79"/>
     <mergeCell ref="A80:E80"/>
@@ -3879,14 +3869,27 @@
     <mergeCell ref="A103:E106"/>
     <mergeCell ref="A122:E125"/>
     <mergeCell ref="A133:E136"/>
-    <mergeCell ref="A148:E149"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A159:E160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A137:E138"/>
-    <mergeCell ref="A144:E147"/>
-    <mergeCell ref="A155:E158"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="A171:E174"/>
+    <mergeCell ref="A74:E77"/>
+    <mergeCell ref="A9:E12"/>
+    <mergeCell ref="A26:E29"/>
+    <mergeCell ref="A37:E40"/>
+    <mergeCell ref="A52:E55"/>
+    <mergeCell ref="A63:E66"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A56:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A107:E108"/>
+    <mergeCell ref="A109:E109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
